--- a/RocketBank-tests.xlsx
+++ b/RocketBank-tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s2xs/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s2xs/Documents/MyFirst_Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="208">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -996,12 +996,18 @@
   <si>
     <t>Post-release tests</t>
   </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1119,6 +1125,13 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1279,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1441,8 +1454,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,9 +1468,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1738,10 +1752,10 @@
   <dimension ref="A1:DT1031"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1874,7 +1888,9 @@
         <v>2</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9">
+        <v>43555</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="9"/>
       <c r="O3" s="4"/>
@@ -1974,29 +1990,29 @@
       <c r="G6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="67" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="61"/>
+      <c r="P6" s="67"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="61"/>
+      <c r="R6" s="67"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="61"/>
+      <c r="T6" s="67"/>
       <c r="U6" s="4"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -2064,7 +2080,9 @@
         <v>1</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="19"/>
       <c r="O8" s="4"/>
@@ -2100,7 +2118,9 @@
       <c r="I9" s="17"/>
       <c r="J9" s="16"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="19"/>
       <c r="O9" s="4"/>
@@ -2136,7 +2156,9 @@
       <c r="I10" s="17"/>
       <c r="J10" s="16"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="19"/>
       <c r="O10" s="4"/>
@@ -2172,7 +2194,9 @@
       <c r="I11" s="17"/>
       <c r="J11" s="16"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="68" t="s">
+        <v>207</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="19"/>
       <c r="O11" s="4"/>
@@ -6018,19 +6042,19 @@
     <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="L8:L12 V13 X13 Z13 AB13 AD13 AF13 AH13 AJ13 AL13 AN13 AP13 AR13 AT13 AV13 AX13 AZ13 BB13 BD13 BF13 BH13 BJ13 BL13 BN13 BP13 BR13 BT13 BV13 BX13 BZ13 CB13 CF13 CH13 CJ13 CL13 CN13 CP13 CR13 CT13 CV13 CX13 CZ13 DB13 DD13 DF13 DH13 DJ13:DT13 L14:L73 N8:N73 P8:P73 R8:R73 T8:T73">
